--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BD/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BD/20/seed1/result_data_RandomForest.xlsx
@@ -499,13 +499,13 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>4.684100000000003</v>
+        <v>4.7059</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.357000000000003</v>
+        <v>-8.283799999999998</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.807899999999997</v>
+        <v>-8.676399999999999</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -533,13 +533,13 @@
         <v>-20.35</v>
       </c>
       <c r="B6" t="n">
-        <v>9.287400000000003</v>
+        <v>9.371699999999999</v>
       </c>
       <c r="C6" t="n">
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.456799999999999</v>
+        <v>-8.601699999999992</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>5.082999999999998</v>
+        <v>5.106699999999996</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -567,13 +567,13 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.008699999999999</v>
+        <v>5.080999999999998</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.132600000000002</v>
+        <v>-8.153500000000001</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -703,13 +703,13 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>8.42090000000001</v>
+        <v>8.572000000000008</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.873999999999995</v>
+        <v>-7.860500000000004</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.483099999999997</v>
+        <v>5.557799999999997</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -788,7 +788,7 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>5.230299999999999</v>
+        <v>5.199099999999996</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
@@ -811,7 +811,7 @@
         <v>-10.65</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.294000000000002</v>
+        <v>-8.301999999999998</v>
       </c>
       <c r="E22" t="n">
         <v>12.2</v>
